--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:27:19+00:00</t>
+    <t>2025-08-21T11:48:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:48:05+00:00</t>
+    <t>2025-08-21T11:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:51:57+00:00</t>
+    <t>2025-08-21T12:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:47:24+00:00</t>
+    <t>2025-09-05T12:53:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T12:53:29+00:00</t>
+    <t>2025-09-10T13:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -748,7 +748,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -845,7 +845,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1054,7 +1054,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1119,7 +1119,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,7 +1145,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1230,7 +1230,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1255,7 +1255,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1419,7 +1419,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1454,7 +1454,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1485,7 +1485,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1507,7 +1507,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1589,7 +1589,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1634,7 +1634,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1655,7 +1655,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1676,7 +1676,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1712,7 +1712,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1748,7 +1748,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1841,7 +1841,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2198,7 +2198,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
